--- a/Risultati/DID_selling_matrix.xlsx
+++ b/Risultati/DID_selling_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Risultati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Risultati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19EB219-8751-40FD-8861-BB3AF7DF01B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D94D04-09EC-BD4E-B4E0-84F9AB799608}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="14115" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
+    <workbookView xWindow="160" yWindow="680" windowWidth="28800" windowHeight="11740" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">
-Furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Clothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Photo-optics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Domestic-appliances</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Stationery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Footwear</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -73,6 +46,27 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Household K.</t>
+  </si>
+  <si>
+    <t>Household T.</t>
+  </si>
+  <si>
+    <t>Footwear</t>
+  </si>
+  <si>
+    <t>Photo-optics</t>
   </si>
 </sst>
 </file>
@@ -111,12 +105,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -460,125 +458,125 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-60.07</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-40.159999999999997</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-16.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-65.78</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-20.62</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-20.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-27.34</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-20.32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B5" s="2">
+        <v>-52.32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-34.14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-18.989999999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-10.51</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B7" s="2">
+        <v>-30.23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-13.02</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>-91.837999999999994</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-46.887999999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.6040000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-95.972999999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-57.372999999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-11.702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-90.396000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-60.896000000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-15.696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-68.265000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-41.814999999999998</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.2490000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-76.488</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-45.338000000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-3.774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>-98.938000000000002</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-60.338500000000003</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.8003999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-57.095999999999997</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-41.246000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-8.1530000000000005</v>
+      <c r="B8" s="4">
+        <v>-64.31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-27.55</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Risultati/DID_selling_matrix.xlsx
+++ b/Risultati/DID_selling_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Risultati/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D94D04-09EC-BD4E-B4E0-84F9AB799608}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B80B7-409E-427C-9D10-0EC00801551B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="680" windowWidth="28800" windowHeight="11740" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
+    <workbookView xWindow="-1680" yWindow="120" windowWidth="19365" windowHeight="15600" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Appliances</t>
   </si>
   <si>
-    <t>Household K.</t>
-  </si>
-  <si>
     <t>Household T.</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Photo-optics</t>
+  </si>
+  <si>
+    <t>Homeware</t>
   </si>
 </sst>
 </file>
@@ -458,16 +458,16 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,21 +495,21 @@
         <v>-16.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>-65.78</v>
       </c>
       <c r="C3" s="2">
-        <v>-20.62</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="D3" s="2">
         <v>-20.62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,9 +523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>-52.32</v>
@@ -537,9 +537,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>-18.989999999999998</v>
@@ -551,9 +551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>-30.23</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
